--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\python-nhuanbut\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709E65D-5AC4-44BA-961F-D997B942D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1CA8982C-362C-4BF7-AFFA-46152B1B4683}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Người thực hiện</t>
-  </si>
-  <si>
-    <t>Chức danh</t>
-  </si>
-  <si>
-    <t>Chương trình</t>
-  </si>
-  <si>
-    <t>Số kỳ</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,45 +420,1513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00016D58-FE69-48D8-97B4-AF9737A22F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Thời gian</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chương trình</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Người thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Chức danh</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Số kỳ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thành Tiền</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="27.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Thời gian</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chương trình</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Chức danh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Họ và tên</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Số kỳ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thành Tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chỉ đạo thực hiện</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Thái Hoàng Hinh</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kim Chi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tố Chi</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Biên tập</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nhật Thi</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cẩm Nguyên</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/9 -30/9/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BẢN TIN KHUYẾN CÔNG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Duy Ân</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chỉ đạo thực hiện</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thái Hoàng Hinh</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kim Chi</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tố Chi</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Biên tập</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Minh Mẫn</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Duy Anh</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10 -31/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PHÁP LUẬT VỚI CÔNG DÂN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chỉ đạo thực hiện</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thái Hoàng Hinh</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kim Chi</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>372000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tố Chi</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Biên tập</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nhật Thi</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1860000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cẩm Nguyên</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Minh Mẫn</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kim Chi</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ngọc Trân</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cẩm Nguyên</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ngọc Trân</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Duy Ân</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiểu phẩm </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Minh Mẫn</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>83520</v>
+      </c>
+      <c r="G32" t="n">
+        <v>334080</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiểu phẩm </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Minh Mẫn</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>41760</v>
+      </c>
+      <c r="G33" t="n">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiểu phẩm </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20880</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20880</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TAM NÔNG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiểu phẩm </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Duy Ân</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20880</v>
+      </c>
+      <c r="G35" t="n">
+        <v>83520</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>THÔNG TIN THIẾT YẾU</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Biên tập</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>26</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>THÔNG TIN THIẾT YẾU</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Phát thanh viên</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>THÔNG TIN THIẾT YẾU</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dựng</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>26</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chỉ đạo thực hiện</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thái Hoàng Hinh</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kim Chi</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tố Chi</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tổ chức sản xuất</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Huỳnh Nga</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Biên tập</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>25</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PTV</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vân Anh</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gia Phát</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Thời gian: từ 1/10-31/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>THIẾU NHI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Dựng</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tuyết Nhung PT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>